--- a/data_50.xlsx
+++ b/data_50.xlsx
@@ -417,16 +417,16 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>-0.08</v>
+        <v>14.66666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -434,19 +434,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>-0.038</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -454,19 +454,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>0.041</v>
+        <v>14.91666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -474,19 +474,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0.012</v>
+        <v>17.58333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -494,19 +494,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>0.014</v>
+        <v>14.08333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -526,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <v>-0.04</v>
+        <v>11.91666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -534,19 +534,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>-0.014</v>
+        <v>15.83333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -554,19 +554,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>-0.074</v>
+        <v>13.08333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -577,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>-0.049</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -597,16 +597,16 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.099</v>
+        <v>11.08333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -617,16 +617,16 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12">
-        <v>0.057</v>
+        <v>15.08333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,13 +640,13 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>0.08500000000000001</v>
+        <v>14.41666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -654,19 +654,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>-0.029</v>
+        <v>15.91666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -677,16 +677,16 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15">
-        <v>-0.012</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -694,19 +694,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.035</v>
+        <v>13.58333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <v>0.074</v>
+        <v>13.66666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -737,16 +737,16 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>0.01</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -754,19 +754,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>0.004</v>
+        <v>15.66666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -783,10 +783,10 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>-0.04</v>
+        <v>13.66666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -797,16 +797,16 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>0.044</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -814,19 +814,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>-0.056</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -834,19 +834,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>-0.027</v>
+        <v>16.33333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -854,19 +854,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>-0.08</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -874,19 +874,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>-0.019</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -897,16 +897,16 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>-0.04</v>
+        <v>12.58333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -914,19 +914,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.15</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -934,10 +934,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="F28">
-        <v>-0.025</v>
+        <v>13.08333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -954,19 +954,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29">
-        <v>-0.019</v>
+        <v>14.58333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -974,7 +974,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>0.066</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -997,16 +997,16 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31">
-        <v>-0.03</v>
+        <v>14.33333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>0.047</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>-0.008</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1057,16 +1057,16 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>0.068</v>
+        <v>11.91666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>-0.005</v>
+        <v>16.33333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>3</v>
       </c>
       <c r="F36">
-        <v>0.026</v>
+        <v>13.83333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>0.026</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1137,16 +1137,16 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>0.116</v>
+        <v>14.16666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>0.053</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1177,16 +1177,16 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40">
-        <v>0.012</v>
+        <v>12.58333333333333</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1197,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1206,7 +1206,7 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <v>-0.006</v>
+        <v>10.41666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>-0.008</v>
+        <v>14.16666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1240,13 +1240,13 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>-0.06</v>
+        <v>12.16666666666667</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="F44">
-        <v>-0.026</v>
+        <v>13.66666666666667</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1274,10 +1274,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -1286,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="F45">
-        <v>-0.019</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>0.019</v>
+        <v>12.33333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1320,13 +1320,13 @@
         <v>3</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>-0.01</v>
+        <v>13.83333333333333</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>-0.051</v>
+        <v>15.41666666666667</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>0.05</v>
+        <v>16.08333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50">
-        <v>-0.064</v>
+        <v>15.33333333333333</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1397,16 +1397,16 @@
         <v>4</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>-0.058</v>
+        <v>14.58333333333333</v>
       </c>
     </row>
   </sheetData>
